--- a/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
+++ b/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46F6212-8DF4-4E10-A28D-4751C52A426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C860E211-9CEE-47C4-AA51-CC6C84F110F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51600" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>EVALUATION CRITERIA</t>
   </si>
@@ -282,9 +282,6 @@
       </rPr>
       <t>Environmental</t>
     </r>
-  </si>
-  <si>
-    <t>TOTAL SCORE</t>
   </si>
   <si>
     <t>PART 2 - COMMERCIAL</t>
@@ -541,6 +538,13 @@
 That both parties agree to such an extension annually;
 That the period of extension is by mutual agreement.
 Wannon Water shall notify the Consultant in writing, a minimum of sixty (60) days prior to the end of the Contract period, of its wish to extend the Contract.  The Consultant shall notify Wannon Water in writing, within thirty (30) days of receiving the offer from Wannon Water, of its acceptance or otherwise of the offer to extend the Contract.</t>
+  </si>
+  <si>
+    <t>Higher score if company has previous worked with Wannon Water.</t>
+  </si>
+  <si>
+    <t>Higher score if company has previous worked with Wannon Water - this is important for continuity of delivery of Digital Operating Model and Digital Strategy.
+Lower score if company has not previous worked for Wannon Water.</t>
   </si>
 </sst>
 </file>
@@ -1084,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D7AF77-B56D-4660-ADBB-CDF91CBA8222}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1140,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1144,7 +1150,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="69" x14ac:dyDescent="0.25">
@@ -1153,7 +1159,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="69" x14ac:dyDescent="0.25">
@@ -1162,7 +1168,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1185,9 @@
         <v>10</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1187,7 +1195,7 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="386.4" x14ac:dyDescent="0.25">
@@ -1196,7 +1204,7 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="138" x14ac:dyDescent="0.25">
@@ -1205,12 +1213,12 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10">
         <v>20</v>
@@ -1223,7 +1231,7 @@
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -1232,7 +1240,7 @@
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1258,7 @@
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
@@ -1259,7 +1267,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1278,57 +1286,57 @@
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
-        <v>100</v>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="C27" s="17"/>
     </row>
@@ -1337,31 +1345,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>26</v>
+      <c r="B29" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
+    <hyperlink ref="C25" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
+++ b/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C860E211-9CEE-47C4-AA51-CC6C84F110F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A1B95-F917-43E3-A750-FF33A9F192E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51600" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
@@ -543,7 +543,7 @@
     <t>Higher score if company has previous worked with Wannon Water.</t>
   </si>
   <si>
-    <t>Higher score if company has previous worked with Wannon Water - this is important for continuity of delivery of Digital Operating Model and Digital Strategy.
+    <t>Higher score if company has previous worked with Wannon Water - this is important for continuity of delivery of Digital Operating Model and Digital Strategy.  This may be shown in examples of previous partnering or partnerships. If evidence found then this criteria should be scored no lower than an 8.  If no evidence found then score this criteria no higher than a 7.
 Lower score if company has not previous worked for Wannon Water.</t>
   </si>
 </sst>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
+++ b/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44A1B95-F917-43E3-A750-FF33A9F192E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD05F2CA-64E5-44E0-A1E3-80675F1D2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51600" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc176179427" localSheetId="0">Sheet1!$C$15</definedName>
-    <definedName name="_Toc176179431" localSheetId="0">Sheet1!$C$12</definedName>
-    <definedName name="_Toc176179432" localSheetId="0">Sheet1!$C$16</definedName>
-    <definedName name="_Toc176179433" localSheetId="0">Sheet1!$C$19</definedName>
+    <definedName name="_Toc176179427" localSheetId="0">Sheet1!$C$16</definedName>
+    <definedName name="_Toc176179431" localSheetId="0">Sheet1!$C$13</definedName>
+    <definedName name="_Toc176179432" localSheetId="0">Sheet1!$C$17</definedName>
+    <definedName name="_Toc176179433" localSheetId="0">Sheet1!$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>EVALUATION CRITERIA</t>
   </si>
@@ -493,16 +493,6 @@
 Innovation and Updates: A demonstrated commitment to staying at the forefront of industry trends and updating services accordingly.</t>
   </si>
   <si>
-    <t xml:space="preserve">The service will be delivered through the following channels:
-Research Reports: Access to detailed reports on trends, best practices, and technologies in IT and OT.
-Market Analysis: Regular updates on the competitive landscape, including vendor evaluations, market forecasts, and technology adoption rates.
-Strategic Guidance: Customised strategic advice based on the latest industry trends and specific business needs.
-Benchmarking Services: Data and tools to compare Wannon Water's performance against industry peers.
-Access to Analysts: Direct consultations with industry experts for personalised advice and support.
-Workshops, Webinars, and Conferences: Access to world-class conferences, educational sessions, and workshops that provide cutting-edge insights and networking opportunities with industry leaders.
-</t>
-  </si>
-  <si>
     <t>An indication of how the service would be implemented.</t>
   </si>
   <si>
@@ -545,6 +535,22 @@
   <si>
     <t>Higher score if company has previous worked with Wannon Water - this is important for continuity of delivery of Digital Operating Model and Digital Strategy.  This may be shown in examples of previous partnering or partnerships. If evidence found then this criteria should be scored no lower than an 8.  If no evidence found then score this criteria no higher than a 7.
 Lower score if company has not previous worked for Wannon Water.</t>
+  </si>
+  <si>
+    <t>History of partnering with Wannon Water</t>
+  </si>
+  <si>
+    <t>Very important!</t>
+  </si>
+  <si>
+    <t>The service will be delivered through the following channels:
+Research Reports: Access to detailed reports on trends, best practices, and technologies in IT and OT.
+Market Analysis: Regular updates on the competitive landscape, including vendor evaluations, market forecasts, and technology adoption rates.
+Strategic Guidance: Customised strategic advice based on the latest industry trends and specific business needs.
+Benchmarking Services: Data and tools to compare Wannon Water's performance against industry peers.
+Access to Analysts: Direct consultations with industry experts for personalised advice and support.
+Workshops, Webinars, and Conferences: Access to world-class conferences, educational sessions, and workshops that provide cutting-edge insights and networking opportunities with industry leaders.
+Specifically call out the number of seats or employee access licences as part of the proposal.</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D7AF77-B56D-4660-ADBB-CDF91CBA8222}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1137,230 +1143,239 @@
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B10" s="10">
         <v>35</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="386.4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="331.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="386.4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B15" s="10">
         <v>20</v>
       </c>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="C26" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C30" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
+    <hyperlink ref="C26" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>

--- a/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
+++ b/documents/advisory rfq/AdvisoryEvalMatrix_incTenderBriefData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\evaluation\evaluation_2\documents\advisory rfq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD05F2CA-64E5-44E0-A1E3-80675F1D2AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC5C6F5-A29B-4F55-BCB1-EABD4ED1AA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51600" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
+    <workbookView xWindow="-25800" yWindow="3750" windowWidth="25800" windowHeight="21000" xr2:uid="{244677D2-74B4-4266-AB66-552EE3A0A616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc176179427" localSheetId="0">Sheet1!$C$16</definedName>
-    <definedName name="_Toc176179431" localSheetId="0">Sheet1!$C$13</definedName>
-    <definedName name="_Toc176179432" localSheetId="0">Sheet1!$C$17</definedName>
-    <definedName name="_Toc176179433" localSheetId="0">Sheet1!$C$20</definedName>
+    <definedName name="_Toc176179427" localSheetId="0">Sheet1!$D$15</definedName>
+    <definedName name="_Toc176179431" localSheetId="0">Sheet1!$D$12</definedName>
+    <definedName name="_Toc176179432" localSheetId="0">Sheet1!$D$16</definedName>
+    <definedName name="_Toc176179433" localSheetId="0">Sheet1!$D$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>EVALUATION CRITERIA</t>
   </si>
@@ -438,11 +438,6 @@
   </si>
   <si>
     <t>comments</t>
-  </si>
-  <si>
-    <t>The backgrounds of key personnel must be provided
-An indication of the availability of key personnel must be provided
-Personnel must be appropriately qualified.</t>
   </si>
   <si>
     <t>The service is a contemporary Digital Advisory Service. 
@@ -459,11 +454,6 @@
 Emerging technologies (e.g., AI, IoT).
 Vendor evaluations and comparisons.
 Risk management and compliance.</t>
-  </si>
-  <si>
-    <t>The advisory service will cover a broad range of industries with particular emphasis on sectors where IT and OT convergence is critical. 
-Special attention will be given to: 
-Utilities and Water Management</t>
   </si>
   <si>
     <t>Client Engagement and Support
@@ -493,19 +483,6 @@
 Innovation and Updates: A demonstrated commitment to staying at the forefront of industry trends and updating services accordingly.</t>
   </si>
   <si>
-    <t>An indication of how the service would be implemented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The consultant performing work must be familiar with and comply with current safety legislation including Victorian Occupational Health and Safety Act 2004, Victorian Occupational Health and Safety Regulations 2007, Victorian Codes of Practice and relevant Australian and International Standards.
-</t>
-  </si>
-  <si>
-    <t>Wannon Water is committed to providing all customers with the highest level of service; this includes the protection of their privacy in respect to information held on Wannon Water’s databases. Wannon Water is bound by the Privacy and Data Protection Act 2014 (Vic), which requires Wannon Water to comply with the Information Privacy Principles. Wannon Water requires that the consultant to also abide by these principles where the consultant has access to customer information.</t>
-  </si>
-  <si>
-    <t>Pursuant to the attached terms and conditions, a Public Liability Insurance Policy for no less than $20,000,000 and Professional Indemnity Insurance Policy for no less than $5,000,000 shall held by the Supplier and be current for the term of the Contract.</t>
-  </si>
-  <si>
     <t>Cost and Payment Terms
 Pricing Structure: a subscription pricing model is required.
 A discount is required for a long-term commitment.
@@ -530,17 +507,8 @@
 Wannon Water shall notify the Consultant in writing, a minimum of sixty (60) days prior to the end of the Contract period, of its wish to extend the Contract.  The Consultant shall notify Wannon Water in writing, within thirty (30) days of receiving the offer from Wannon Water, of its acceptance or otherwise of the offer to extend the Contract.</t>
   </si>
   <si>
-    <t>Higher score if company has previous worked with Wannon Water.</t>
-  </si>
-  <si>
     <t>Higher score if company has previous worked with Wannon Water - this is important for continuity of delivery of Digital Operating Model and Digital Strategy.  This may be shown in examples of previous partnering or partnerships. If evidence found then this criteria should be scored no lower than an 8.  If no evidence found then score this criteria no higher than a 7.
 Lower score if company has not previous worked for Wannon Water.</t>
-  </si>
-  <si>
-    <t>History of partnering with Wannon Water</t>
-  </si>
-  <si>
-    <t>Very important!</t>
   </si>
   <si>
     <t>The service will be delivered through the following channels:
@@ -552,12 +520,1174 @@
 Workshops, Webinars, and Conferences: Access to world-class conferences, educational sessions, and workshops that provide cutting-edge insights and networking opportunities with industry leaders.
 Specifically call out the number of seats or employee access licences as part of the proposal.</t>
   </si>
+  <si>
+    <t>context from tender brief</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Yes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">evidence provided of a Public Liability Insurance Policy for no less than $20,000,000 and Professional Indemnity Insurance Policy for no less than $5,000,000 held by the Supplier and current for the term of the Contract.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>evidence missing or incomplete response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Highly professional, well-structured proposal with clear, concise, and compelling content that is free of errors, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Good proposal structure with clear content but may have minor gaps in clarity, formatting, or organization, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic proposal that meets minimum requirements but lacks polish, detail, or organization, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Poorly structured or unclear proposal that does not adequately communicate the offer or align with requirements, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Comprehensive and well-defined deliverables that align fully with project objectives, include measurable outcomes, and provide clear value, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Well-structured deliverables that mostly align with project objectives but may lack detail in scope or measurement, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">General description of deliverables with some alignment to project goals but lacking specificity or measurability, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Unclear, vague, or incomplete deliverables that do not adequately address project requirements, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Comprehensive and well-structured response that explicitly addresses all requirements with clear alignment to project objectives and potential challenges, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong response that covers most key requirements with relevant details but may lack depth in addressing complex aspects or potential risks, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic understanding demonstrated, with some general alignment to requirements but lacking detailed insights or specific references to project needs, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Limited or unclear response with minimal alignment to stated requirements, or generic response that does not address specifics, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Demonstrates unique, innovative solutions that enhance project outcomes beyond standard expectations, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Includes some innovative aspects or additional value, though not fully developed or transformative, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Limited innovation; proposal is mostly conventional with minor added value, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No demonstrated innovation or added value beyond basic compliance, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Clearly defined methodology with detailed, logical steps that align with best practices and project goals, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sound methodology that aligns with project needs but may lack depth in execution or justification, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic methodology provided, but lacks clarity, consistency, or sufficient justification, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No clear methodology or vague, incomplete approach, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Detailed and realistic project plan with clear milestones, dependencies, and contingency planning, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Well-structured project plan with reasonable timelines but may lack contingency details, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">General project plan with estimated timelines but lacking details on dependencies or risks, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No clear project timeline or unrealistic/missing key milestones, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong, well-documented organizational structure with defined roles, dedicated resources, and ability to scale rapidly for the project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sufficient capacity to deliver, with some minor gaps in role definition or scalability, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5/10 or above:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Limited evidence of a structured approach to project resourcing or ability to handle complexity, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No clear details on team structure, resourcing, or capability to deliver at scale, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Proven history of delivering identical services to Wannon Water, over an extended period, with clear examples and results,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong track record of delivering services that are similar in scope or function, to organisations of a similar size and in the water industry, but no experience with Wannon Water 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Some relevant experience in related service areas, but limited direct alignment with the required services, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No clear evidence of delivering comparable services,  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Deep subject matter expertise, backed by qualifications, accreditations, and demonstrable real-world application, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Demonstrates competency and relevant knowledge, but may lack specific certifications or direct application, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">General industry knowledge without strong specialization or applied expertise in the requested area, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Less than 5/10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: No clear expertise demonstrated or only general awareness, 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Extensive experience within the water industry, with deep knowledge of sector-specific regulations, processes, and challenges, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong experience in closely related industries (e,g,, utilities, infrastructure) with some exposure to the water sector, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Limited but relevant experience in regulatory or public-sector work that could translate into water industry needs, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No relevant water industry or closely related sector experience, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Named individuals with well-documented qualifications, deep experience, and directly relevant project involvement, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Key personnel identified with relevant expertise, but lacking detail on experience or project involvement, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Some mention of key personnel but lacking specific qualifications, named individuals, or role clarity, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No mention of key personnel or vague/non-detailed references to available staff, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Strong environmental sustainability measures, including detailed impact mitigation and compliance with best practices, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Good environmental considerations but may lack depth in implementation details, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic environmental commitments but minimal concrete measures, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No environmental commitments or unclear strategy for sustainability, 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Comprehensive OHS plan aligned with regulations and best practices, including risk management and training, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Good OHS framework with adherence to key safety standards but lacking some detail, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic mention of OHS compliance but lacks depth in risk mitigation, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">No clear OHS considerations or minimal attention to safety, 
+Note: applicable safety legislation includes Victorian Occupational Health and Safety Act 2004, Victorian Occupational Health and Safety Regulations 2007, Victorian Codes of Practice and relevant Australian and International Standards.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Demonstrates a strong commitment to high-quality outputs, supported by standards, processes, and quality assurance measures, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Good quality control measures in place, but with minor gaps in assurance or documentation, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5/10 or above: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Basic quality assurance considerations but lacks formalized structure, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Less than 5/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No clear quality measures or insufficient focus on quality assurance, 
+note:
+Wannon Water is committed to providing all customers with the highest level of service; this includes the protection of their privacy in respect to information held on Wannon Water’s databases. Wannon Water is bound by the Privacy and Data Protection Act 2014 (Vic), which requires Wannon Water to comply with the Information Privacy Principles. Wannon Water requires that the consultant to also abide by these principles where the consultant has access to customer information.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +1728,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -701,7 +1838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -759,6 +1896,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,20 +2258,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D7AF77-B56D-4660-ADBB-CDF91CBA8222}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.8984375" customWidth="1"/>
-    <col min="2" max="2" width="49.59765625" customWidth="1"/>
-    <col min="3" max="3" width="42.796875" customWidth="1"/>
+    <col min="2" max="3" width="49.59765625" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,265 +2281,303 @@
       <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10">
         <v>40</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="228" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="228" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="212.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="212.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10">
+        <v>35</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="257.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="386.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="197.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="10">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="17" t="s">
+      <c r="D15" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="182.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="289.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>35</v>
-      </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="331.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="386.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="C17" s="21"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="392.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="212.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>5</v>
-      </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="24"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="17"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
+    <hyperlink ref="D25" r:id="rId1" display="https://content.vic.gov.au/sites/default/files/2023-12/eServcies-contract-%28April-2021%29.pdf" xr:uid="{870A90FF-5C17-47AB-8280-F8FC5CE1B5C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
